--- a/Alt-Data.xlsx
+++ b/Alt-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalok/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aalok/Documents/webpage/aalok-thakkar.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB2D88-B760-7340-8471-15C5F6CDAD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F00F2DE-7100-E946-98D2-9C0768B5960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="800" windowWidth="28040" windowHeight="17120" xr2:uid="{A0664BD9-2B28-5746-8E14-B68A533FE50B}"/>
+    <workbookView xWindow="1100" yWindow="800" windowWidth="28040" windowHeight="17120" activeTab="2" xr2:uid="{A0664BD9-2B28-5746-8E14-B68A533FE50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Regression" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Input Variable (Distance)</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>Lower Bound (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructions: </t>
+  </si>
+  <si>
+    <t>STEP 1: Remove the quotation marks in Linear Estimator 1 (calculate average of B3:B12)</t>
+  </si>
+  <si>
+    <t>STEP 2: Make a linear model equal to the average</t>
+  </si>
+  <si>
+    <t>STEP 3: Remove the quotation marks in Linear Estimator 2 (calculate by replacing output with B3:B12 and input with A3:A12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP 4: Make a linear model. Set C3 = (B21*A3 + C21). Stretch this down. </t>
+  </si>
+  <si>
+    <t>STEP 1: Click the chart and opt for "Format Rendline …"</t>
+  </si>
+  <si>
+    <t>STEP 2: Extrapolate using the Forecast Option</t>
+  </si>
+  <si>
+    <t>STEP 3: Change the degree of the polynomial and observe the change in 'fitness/error'</t>
+  </si>
+  <si>
+    <t>All steps are done for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercise: Find one mistake in this spreadsheet. </t>
   </si>
 </sst>
 </file>
@@ -428,6 +458,27 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,30 +497,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2830,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03F3FD6-0F43-2B46-9ABB-DFEF6966E95A}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2845,12 +2873,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3097,6 +3125,31 @@
       <c r="B23" s="23">
         <f>CORREL(A3:A12,B3:B12)</f>
         <v>0.8988034169555188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3110,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB19DF5-E93D-834E-ADD2-51D3E3886BF6}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="94" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3125,12 +3178,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3327,12 +3380,12 @@
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3527,6 +3580,26 @@
       <c r="B28" s="19"/>
       <c r="C28" s="1"/>
       <c r="D28" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3541,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2AEA94-118A-364B-8C42-040402D71816}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3557,12 +3630,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3577,7 +3650,7 @@
       <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="31"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -3590,7 +3663,7 @@
         <f>EXP(-((A3-$B$17)^2/(2*($B$15)^2)))</f>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="24">
         <f>C3*B3</f>
         <v>4.6374811705477163E-4</v>
       </c>
@@ -3606,7 +3679,7 @@
         <f t="shared" ref="C4:C12" si="0">EXP(-((A4-$B$17)^2/(2*($B$15)^2)))</f>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="24">
         <f t="shared" ref="D4:D12" si="1">C4*B4</f>
         <v>2.7240898846512601E-3</v>
       </c>
@@ -3622,7 +3695,7 @@
         <f t="shared" si="0"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="24">
         <f t="shared" si="1"/>
         <v>1.7855885704709237E-2</v>
       </c>
@@ -3638,7 +3711,7 @@
         <f t="shared" si="0"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="24">
         <f t="shared" si="1"/>
         <v>0.1544253852954324</v>
       </c>
@@ -3654,7 +3727,7 @@
         <f t="shared" si="0"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="24">
         <f t="shared" si="1"/>
         <v>0.40506607828632935</v>
       </c>
@@ -3670,7 +3743,7 @@
         <f t="shared" si="0"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="24">
         <f t="shared" si="1"/>
         <v>9.1227343327696289E-2</v>
       </c>
@@ -3686,7 +3759,7 @@
         <f t="shared" si="0"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="24">
         <f t="shared" si="1"/>
         <v>2.1616971342716451E-2</v>
       </c>
@@ -3702,7 +3775,7 @@
         <f t="shared" si="0"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="24">
         <f t="shared" si="1"/>
         <v>1.4918689426007276E-3</v>
       </c>
@@ -3718,7 +3791,7 @@
         <f t="shared" si="0"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="24">
         <f t="shared" si="1"/>
         <v>3.5688082348613234E-5</v>
       </c>
@@ -3734,7 +3807,7 @@
         <f t="shared" si="0"/>
         <v>2.6995785033630141E-7</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="24">
         <f t="shared" si="1"/>
         <v>1.9684300794331424E-7</v>
       </c>
@@ -3751,7 +3824,7 @@
         <f>AVERAGE(C3:C12)</f>
         <v>0.25065879246243145</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="25">
         <f>AVERAGE(D3:D12)</f>
         <v>6.9490725582654705E-2</v>
       </c>
@@ -3780,10 +3853,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="27">
         <f>D13/C13</f>
         <v>0.27723234800578528</v>
       </c>
@@ -3799,21 +3872,36 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="30">
         <f>B18+1.6*B20</f>
         <v>0.52242704199929835</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="27">
         <f>B18-1.6*B20</f>
         <v>3.203765401227221E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
